--- a/Images/Книг2а1.xlsx
+++ b/Images/Книг2а1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLionProjects\project\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D810CE5D-7B35-40FB-A07B-31046AD4AE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E415B7A9-4E61-4077-ACC3-E24A9C6C7341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3942119-926A-423D-BB15-A0B164DEE7BD}"/>
   </bookViews>
@@ -70,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,12 +78,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -209,17 +228,38 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$4:$C$6</c:f>
+              <c:f>Лист1!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -227,17 +267,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$D$4:$D$6</c:f>
+              <c:f>Лист1!$D$5:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1154</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>990</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14881</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51256</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>66329</c:v>
                 </c:pt>
               </c:numCache>
@@ -278,17 +339,38 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$4:$C$6</c:f>
+              <c:f>Лист1!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -296,17 +378,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$E$4:$E$6</c:f>
+              <c:f>Лист1!$E$5:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>392</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1302</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2542</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4612</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6512</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>8340</c:v>
                 </c:pt>
               </c:numCache>
@@ -347,17 +450,38 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$C$4:$C$6</c:f>
+              <c:f>Лист1!$C$5:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -365,17 +489,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$F$4:$F$6</c:f>
+              <c:f>Лист1!$F$5:$F$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>632</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>711</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>774</c:v>
                 </c:pt>
               </c:numCache>
@@ -1642,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84560B1C-FBCA-4EC2-ACE4-919DA5E78023}">
-  <dimension ref="C3:F6"/>
+  <dimension ref="C3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,44 +1815,156 @@
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>11</v>
+      <c r="C4" s="1">
+        <v>500</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>10000</v>
-      </c>
-      <c r="D5">
-        <v>1154</v>
-      </c>
-      <c r="E5">
-        <v>392</v>
-      </c>
-      <c r="F5">
-        <v>102</v>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6">
+      <c r="C6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="2">
+        <v>128</v>
+      </c>
+      <c r="E6" s="2">
+        <v>72</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>557</v>
+      </c>
+      <c r="E7" s="2">
+        <v>251</v>
+      </c>
+      <c r="F7" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>15000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>990</v>
+      </c>
+      <c r="E8" s="2">
+        <v>349</v>
+      </c>
+      <c r="F8" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4269</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1302</v>
+      </c>
+      <c r="F9" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
+        <v>45000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8963</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1700</v>
+      </c>
+      <c r="F10" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>60000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>14881</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2542</v>
+      </c>
+      <c r="F11" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
+        <v>75000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>35160</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4612</v>
+      </c>
+      <c r="F12" s="2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>90000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>51256</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6512</v>
+      </c>
+      <c r="F13" s="2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>100000</v>
       </c>
-      <c r="D6">
+      <c r="D14" s="2">
         <v>66329</v>
       </c>
-      <c r="E6">
+      <c r="E14" s="2">
         <v>8340</v>
       </c>
-      <c r="F6">
+      <c r="F14" s="2">
         <v>774</v>
       </c>
     </row>
